--- a/data/case1/19/Q_device_1.xlsx
+++ b/data/case1/19/Q_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.048831523601310968</v>
+        <v>-0.038633801308740008</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.048857523168984521</v>
+        <v>-0.041058936046815687</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.032874269815800633</v>
+        <v>-0.0068114147833885849</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.032370873915537654</v>
+        <v>-0.0070921184769611872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.010835741739752863</v>
+        <v>-0.0034107977389385871</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.010502888846392095</v>
+        <v>-0.004190550261800958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.053372378226807397</v>
+        <v>-0.013183342990520394</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.053375986157553811</v>
+        <v>-0.015146136896910507</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.065644490333685176</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.065633118481325123</v>
       </c>
     </row>
   </sheetData>
